--- a/其他文档/Localization.xlsx
+++ b/其他文档/Localization.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="296">
   <si>
     <t>对话编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,641 +41,1010 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialog_a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialog_b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump_id_a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump_id_b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话人物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>People</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张博士</t>
+  </si>
+  <si>
+    <t>合成编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白梦薇</t>
+  </si>
+  <si>
+    <t>焦困</t>
+  </si>
+  <si>
+    <t>未来玩家</t>
+  </si>
+  <si>
+    <t>现在玩家</t>
+  </si>
+  <si>
+    <t>连接成功了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里果然特殊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你能收到我的信息么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是谁？</t>
+  </si>
+  <si>
+    <t>收到了</t>
+  </si>
+  <si>
+    <t>你能先告诉我，今天的日期么？</t>
+  </si>
+  <si>
+    <t>太好了</t>
+  </si>
+  <si>
+    <t>今天的日期是多少？</t>
+  </si>
+  <si>
+    <t>这个你都不知道么？</t>
+  </si>
+  <si>
+    <t>2018年1月19日……</t>
+  </si>
+  <si>
+    <t>还来得及</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我需要你的帮助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我现在没法和你解释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是这个对我很重要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快点告诉我，时间紧迫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在是2018年1月19日</t>
+  </si>
+  <si>
+    <t>还没告诉我你是谁呢？</t>
+  </si>
+  <si>
+    <t>什么帮助？</t>
+  </si>
+  <si>
+    <t>其实，我就是你，未来的你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我所在的时间是2048年，这时的世界一片混乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我需要你联系一个人，然后帮助他活下来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有这样，才能改变未来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否则，世界将要陷入分裂，很多人都要死去，包括你自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我先自我介绍一下吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好的，我应该怎么做？</t>
+  </si>
+  <si>
+    <t>为什么你不直接联系他？</t>
+  </si>
+  <si>
+    <t>我正在进行设置，一会你就可以和他获得联系</t>
+  </si>
+  <si>
+    <t>然后告诉他处于危险之中，让他逃走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你直接告诉他岂不是更好么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是通过一个机器与你获得联系的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系过去这种事非常危险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了避免机器落入坏人手里，研发之初就做了设定：这台机器只能在特定的情况下，与使用者的过去取得联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而且这台机器只有普通人才能使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通人？什么意思？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原来如此</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个之后再向你解释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先去救人吧，否则他死了一切都迟了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你还没有告诉我这个人是谁呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他叫张辉，是一名生物学博士，此时应该在一家科研机构从事基因研究工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年1月19日……他此时应该研制出了一种治疗特殊疾病的药剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正是这个药剂，会给他带来杀身之祸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在，杀手们应该潜入了研究机构，赶紧让他逃走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果他不相信你，那么就告诉他三个字：D基因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系张博士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功了！终于研制出来了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要再通过临床试验，就可以救微微了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张博士，你好</t>
+  </si>
+  <si>
+    <t>张博士，你现在身处险境</t>
+  </si>
+  <si>
+    <t>你如何联系到我的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我收到了未来的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D基因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未来？怎么可能收到未来的信息？！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要编了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告诉我，你是怎么联系到我的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D基因，这下相信了吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你怎么会知道这个？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可能啊</t>
+  </si>
+  <si>
+    <t>这个名字虽然是我取的，但是我还没有告诉任何人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是未来的人，告诉我的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张博士你现在身处险境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一名科学家，你真是在挑战我认知的底线啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既然你能说出D基因，我也不得不相信了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说吧，为什么联系我</t>
+  </si>
+  <si>
+    <t>张博士，你现在身处险境，我是为了帮你，才联系你的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我能有什么危险？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我在这里工作了十多年了，怎么会身处险境？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张博士，你发现了么，今天这里有些奇怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦困，你今天怎么才来？而且哪里奇怪了？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天这里出现了很多陌生面孔，以前从来没有见到过的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难道真的有危险？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个人是谁？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是的，你研制出来的药剂，会给你带来杀身之祸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是我的助手，焦困</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟着我快十年了，人很可靠的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张博士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看来真的有危险，我不能自己一个人走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要带上我的未婚妻薇薇一起走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她也在这个研究所内，我这就去找她</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张博士，带上我吧，遇到困难我也能出一份力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好，那我们先去找薇薇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个药剂是救梦薇的唯一希望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张博士，十年来我一直甘心作为你的助手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都是因为对您的崇敬，带上我一起走吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦困</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果遇到什么困难，我也能出一份力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到未来的消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么样了？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经和张博士说好了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究所已经不安全了，他们要往哪里走呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很好，现在研究所已经不安全了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能让他们从出口走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让他们去研究所的-3楼，在这里可以进入一个秘密基地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让他们带上水晶头骨，这是进入秘密基地的钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我现在就在秘密基地里面，就是通过水晶头骨进来的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶头骨是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘密基地是怎么回事？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我也不清楚它究竟是什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只知道这个东西与这个秘密基地有关，而且通过它才能进入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个基地很特殊，我只能在这里与你取得联系</t>
+  </si>
+  <si>
+    <t>已经没有时间去解释了，快去按着我说的做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系张博士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们刚找到薇薇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>究竟发生什么了？这么急匆匆的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薇薇，我收到了未来的信息，虽然难以相信，但是我们现在确实有危险，需要快速离开这里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们有水晶头骨么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快去研究所的-3楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究所-3楼？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那里什么都没有，去了只能等死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从那里能进入秘密基地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那里没有任何出口，怎么进入呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而且这个秘密基地，我从来都没有听说过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是的，我也没有听过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶头骨？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难道是你之前给我的那一个？我一直带在身边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该是这个了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看来这个东西，除了能抑制你的病情，还有其他作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病情？什么病情？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶头骨从哪里来的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种未知的怪病，从心脏处会向上延伸出黑斑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次偶然的机会获得了这个水晶头骨，发现对梦薇的病情有抑制作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张博士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次偶然的机会获得了这个水晶头骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦薇得了一种怪病，会从心脏处向上延伸出黑斑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现头骨对梦薇的病情有抑制作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快带着头骨去-3楼，你们可以从那里逃走</t>
+  </si>
+  <si>
+    <t>我们已经到了-3楼，这里只有一条走廊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶头骨在淡淡的发光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周围有没有什么异常？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往走廊里走走看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走廊前面有些不对劲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快看，前面产生了空间波动，这是魔法么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靠近波动后，水晶头骨的光越来越强了</t>
+  </si>
+  <si>
+    <t>空间裂开了，我们是要从这里进入么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定是这个了，快进去吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张博士下线……</t>
+  </si>
+  <si>
+    <t>250001a；250002b；250003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是谁？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐音效</t>
+  </si>
+  <si>
+    <t>音乐音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM</t>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示时间</t>
+  </si>
+  <si>
+    <t>显示时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show_time</t>
+  </si>
+  <si>
+    <t>Show_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成编号</t>
+  </si>
+  <si>
+    <t>前置编号</t>
+  </si>
+  <si>
+    <t>对话内容a</t>
+  </si>
+  <si>
+    <t>跳转a</t>
+  </si>
+  <si>
+    <t>对话内容b</t>
+  </si>
+  <si>
+    <t>跳转b</t>
+  </si>
+  <si>
+    <t>Synthesis_id</t>
+  </si>
+  <si>
     <t>Preid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Dialog_a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump_id_a</t>
   </si>
   <si>
     <t>Dialog_b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jump_id_a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Jump_id_b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话人物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>People</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张博士</t>
-  </si>
-  <si>
-    <t>合成编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接成功了</t>
+  </si>
+  <si>
+    <t>这里果然特殊</t>
+  </si>
+  <si>
+    <t>你能收到我的信息么？</t>
+  </si>
+  <si>
+    <t>250001a；250002b；250003</t>
+  </si>
+  <si>
+    <t>还来得及</t>
+  </si>
+  <si>
+    <t>我需要你的帮助</t>
+  </si>
+  <si>
+    <t>我现在没法和你解释</t>
+  </si>
+  <si>
+    <t>但是这个对我很重要</t>
+  </si>
+  <si>
+    <t>快点告诉我，时间紧迫</t>
+  </si>
+  <si>
+    <t>其实，我就是你，未来的你</t>
+  </si>
+  <si>
+    <t>我所在的时间是2048年，这时的世界一片混乱</t>
+  </si>
+  <si>
+    <t>我需要你联系一个人，然后帮助他活下来</t>
+  </si>
+  <si>
+    <t>只有这样，才能改变未来</t>
+  </si>
+  <si>
+    <t>否则，世界将要陷入分裂，很多人都要死去，包括你自己</t>
+  </si>
+  <si>
+    <t>我先自我介绍一下吧</t>
+  </si>
+  <si>
+    <t>然后告诉他处于危险之中，让他逃走</t>
+  </si>
+  <si>
+    <t>你直接告诉他岂不是更好么？</t>
+  </si>
+  <si>
+    <t>我是通过一个机器与你获得联系的</t>
+  </si>
+  <si>
+    <t>联系过去这种事非常危险</t>
+  </si>
+  <si>
+    <t>为了避免机器落入坏人手里，研发之初就做了设定：这台机器只能在特定的情况下，与使用者的过去取得联系</t>
+  </si>
+  <si>
+    <t>而且这台机器只有普通人才能使用</t>
+  </si>
+  <si>
+    <t>普通人？什么意思？</t>
+  </si>
+  <si>
+    <t>原来如此</t>
+  </si>
+  <si>
+    <t>这个之后再向你解释</t>
+  </si>
+  <si>
+    <t>先去救人吧，否则他死了一切都迟了</t>
+  </si>
+  <si>
+    <t>你还没有告诉我这个人是谁呢？</t>
+  </si>
+  <si>
+    <t>他叫张辉，是一名生物学博士，此时应该在一家科研机构从事基因研究工作</t>
+  </si>
+  <si>
+    <t>2018年1月19日……他此时应该研制出了一种治疗特殊疾病的药剂</t>
+  </si>
+  <si>
+    <t>正是这个药剂，会给他带来杀身之祸</t>
+  </si>
+  <si>
+    <t>现在，杀手们应该潜入了研究机构，赶紧让他逃走</t>
+  </si>
+  <si>
+    <t>如果他不相信你，那么就告诉他三个字：D基因</t>
+  </si>
+  <si>
+    <t>联系张博士</t>
+  </si>
+  <si>
+    <t>成功了！终于研制出来了！</t>
+  </si>
+  <si>
+    <t>只要再通过临床试验，就可以救微微了</t>
+  </si>
+  <si>
+    <t>你如何联系到我的？</t>
+  </si>
+  <si>
+    <t>我收到了未来的信息</t>
+  </si>
+  <si>
+    <t>D基因</t>
+  </si>
+  <si>
+    <t>未来？怎么可能收到未来的信息？！</t>
+  </si>
+  <si>
+    <t>不要编了</t>
+  </si>
+  <si>
+    <t>告诉我，你是怎么联系到我的</t>
+  </si>
+  <si>
+    <t>D基因，这下相信了吧</t>
+  </si>
+  <si>
+    <t>你怎么会知道这个？</t>
+  </si>
+  <si>
+    <t>这个名字虽然是我取的，但是我还没有告诉任何人</t>
+  </si>
+  <si>
+    <t>是未来的人，告诉我的</t>
+  </si>
+  <si>
+    <t>张博士你现在身处险境</t>
+  </si>
+  <si>
+    <t>作为一名科学家，你真是在挑战我认知的底线啊</t>
+  </si>
+  <si>
+    <t>既然你能说出D基因，我也不得不相信了</t>
+  </si>
+  <si>
+    <t>张博士，你现在身处险境，我是为了帮你，才联系你的</t>
+  </si>
+  <si>
+    <t>我能有什么危险？</t>
+  </si>
+  <si>
+    <t>我在这里工作了十多年了，怎么会身处险境？</t>
+  </si>
+  <si>
+    <t>张博士，你发现了么，今天这里有些奇怪</t>
+  </si>
+  <si>
+    <t>焦困，你今天怎么才来？而且哪里奇怪了？</t>
+  </si>
+  <si>
+    <t>今天这里出现了很多陌生面孔，以前从来没有见到过的</t>
+  </si>
+  <si>
+    <t>难道真的有危险？</t>
+  </si>
+  <si>
+    <t>这个人是谁？</t>
+  </si>
+  <si>
+    <t>是的，你研制出来的药剂，会给你带来杀身之祸</t>
+  </si>
+  <si>
+    <t>这是我的助手，焦困</t>
+  </si>
+  <si>
+    <t>跟着我快十年了，人很可靠的</t>
+  </si>
+  <si>
+    <t>看来真的有危险，我不能自己一个人走</t>
+  </si>
+  <si>
+    <t>我要带上我的未婚妻薇薇一起走</t>
+  </si>
+  <si>
+    <t>她也在这个研究所内，我这就去找她</t>
+  </si>
+  <si>
+    <t>张博士，带上我吧，遇到困难我也能出一份力</t>
+  </si>
+  <si>
+    <t>好，那我们先去找薇薇</t>
+  </si>
+  <si>
+    <t>这个药剂是救梦薇的唯一希望</t>
+  </si>
+  <si>
+    <t>张博士，十年来我一直甘心作为你的助手</t>
+  </si>
+  <si>
+    <t>都是因为对您的崇敬，带上我一起走吧</t>
+  </si>
+  <si>
+    <t>如果遇到什么困难，我也能出一份力</t>
+  </si>
+  <si>
+    <t>收到未来的消息</t>
+  </si>
+  <si>
+    <t>怎么样了？</t>
+  </si>
+  <si>
+    <t>已经和张博士说好了</t>
+  </si>
+  <si>
+    <t>研究所已经不安全了，他们要往哪里走呢？</t>
+  </si>
+  <si>
+    <t>很好，现在研究所已经不安全了</t>
+  </si>
+  <si>
+    <t>不能让他们从出口走</t>
+  </si>
+  <si>
+    <t>让他们去研究所的-3楼，在这里可以进入一个秘密基地</t>
+  </si>
+  <si>
+    <t>让他们带上水晶头骨，这是进入秘密基地的钥匙</t>
+  </si>
+  <si>
+    <t>我现在就在秘密基地里面，就是通过水晶头骨进来的</t>
+  </si>
+  <si>
+    <t>水晶头骨是什么？</t>
+  </si>
+  <si>
+    <t>秘密基地是怎么回事？</t>
+  </si>
+  <si>
+    <t>我也不清楚它究竟是什么</t>
+  </si>
+  <si>
+    <t>只知道这个东西与这个秘密基地有关，而且通过它才能进入</t>
+  </si>
+  <si>
+    <t>已经没有时间去解释了，快去按着我说的做</t>
+  </si>
+  <si>
+    <t>我们刚找到薇薇</t>
+  </si>
+  <si>
+    <t>究竟发生什么了？这么急匆匆的</t>
+  </si>
+  <si>
+    <t>薇薇，我收到了未来的信息，虽然难以相信，但是我们现在确实有危险，需要快速离开这里</t>
+  </si>
+  <si>
+    <t>快去研究所的-3楼</t>
+  </si>
+  <si>
+    <t>你们有水晶头骨么？</t>
+  </si>
+  <si>
+    <t>研究所-3楼？</t>
+  </si>
+  <si>
+    <t>那里什么都没有，去了只能等死</t>
+  </si>
+  <si>
+    <t>从那里能进入秘密基地</t>
+  </si>
+  <si>
+    <t>那里没有任何出口，怎么进入呢？</t>
+  </si>
+  <si>
+    <t>而且这个秘密基地，我从来都没有听说过</t>
+  </si>
+  <si>
+    <t>是的，我也没有听过</t>
+  </si>
+  <si>
+    <t>水晶头骨？</t>
+  </si>
+  <si>
+    <t>难道是你之前给我的那一个？我一直带在身边</t>
+  </si>
+  <si>
+    <t>应该是这个了</t>
+  </si>
+  <si>
+    <t>看来这个东西，除了能抑制你的病情，还有其他作用</t>
+  </si>
+  <si>
+    <t>病情？什么病情？</t>
+  </si>
+  <si>
+    <t>水晶头骨从哪里来的？</t>
+  </si>
+  <si>
+    <t>一种未知的怪病，从心脏处会向上延伸出黑斑</t>
+  </si>
+  <si>
+    <t>一次偶然的机会获得了这个水晶头骨，发现对梦薇的病情有抑制作用</t>
+  </si>
+  <si>
+    <t>一次偶然的机会获得了这个水晶头骨</t>
+  </si>
+  <si>
+    <t>梦薇得了一种怪病，会从心脏处向上延伸出黑斑</t>
+  </si>
+  <si>
+    <t>发现头骨对梦薇的病情有抑制作用</t>
+  </si>
+  <si>
+    <t>我们已经到了-3楼，这里只有一条走廊</t>
+  </si>
+  <si>
+    <t>水晶头骨在淡淡的发光</t>
+  </si>
+  <si>
+    <t>周围有没有什么异常？</t>
+  </si>
+  <si>
+    <t>往走廊里走走看</t>
+  </si>
+  <si>
+    <t>走廊前面有些不对劲</t>
+  </si>
+  <si>
+    <t>快看，前面产生了空间波动，这是魔法么？</t>
+  </si>
+  <si>
+    <t>空间裂开了，我们是要从这里进入么？</t>
+  </si>
+  <si>
+    <t>一定是这个了，快进去吧</t>
   </si>
   <si>
     <t>Synthesis_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>白梦薇</t>
-  </si>
-  <si>
-    <t>焦困</t>
-  </si>
-  <si>
-    <t>未来玩家</t>
-  </si>
-  <si>
-    <t>现在玩家</t>
-  </si>
-  <si>
-    <t>空间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接成功了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里果然特殊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你能收到我的信息么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你是谁？</t>
-  </si>
-  <si>
-    <t>收到了</t>
-  </si>
-  <si>
-    <t>你能先告诉我，今天的日期么？</t>
-  </si>
-  <si>
-    <t>太好了</t>
-  </si>
-  <si>
-    <t>今天的日期是多少？</t>
-  </si>
-  <si>
-    <t>这个你都不知道么？</t>
-  </si>
-  <si>
-    <t>2018年1月19日……</t>
-  </si>
-  <si>
-    <t>还来得及</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我需要你的帮助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我现在没法和你解释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>但是这个对我很重要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快点告诉我，时间紧迫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在是2018年1月19日</t>
-  </si>
-  <si>
-    <t>还没告诉我你是谁呢？</t>
-  </si>
-  <si>
-    <t>什么帮助？</t>
-  </si>
-  <si>
-    <t>其实，我就是你，未来的你</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我所在的时间是2048年，这时的世界一片混乱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我需要你联系一个人，然后帮助他活下来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有这样，才能改变未来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否则，世界将要陷入分裂，很多人都要死去，包括你自己</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我先自我介绍一下吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好的，我应该怎么做？</t>
-  </si>
-  <si>
-    <t>为什么你不直接联系他？</t>
-  </si>
-  <si>
-    <t>我正在进行设置，一会你就可以和他获得联系</t>
-  </si>
-  <si>
-    <t>然后告诉他处于危险之中，让他逃走</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你直接告诉他岂不是更好么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我是通过一个机器与你获得联系的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系过去这种事非常危险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为了避免机器落入坏人手里，研发之初就做了设定：这台机器只能在特定的情况下，与使用者的过去取得联系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>而且这台机器只有普通人才能使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通人？什么意思？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原来如此</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个之后再向你解释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先去救人吧，否则他死了一切都迟了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你还没有告诉我这个人是谁呢？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他叫张辉，是一名生物学博士，此时应该在一家科研机构从事基因研究工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018年1月19日……他此时应该研制出了一种治疗特殊疾病的药剂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正是这个药剂，会给他带来杀身之祸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在，杀手们应该潜入了研究机构，赶紧让他逃走</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果他不相信你，那么就告诉他三个字：D基因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系张博士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功了！终于研制出来了！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只要再通过临床试验，就可以救微微了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张博士，你好</t>
-  </si>
-  <si>
-    <t>张博士，你现在身处险境</t>
-  </si>
-  <si>
-    <t>你如何联系到我的？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我收到了未来的信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D基因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未来？怎么可能收到未来的信息？！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不要编了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>告诉我，你是怎么联系到我的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在玩家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D基因，这下相信了吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你怎么会知道这个？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可能啊</t>
-  </si>
-  <si>
-    <t>这个名字虽然是我取的，但是我还没有告诉任何人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是未来的人，告诉我的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张博士你现在身处险境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为一名科学家，你真是在挑战我认知的底线啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>既然你能说出D基因，我也不得不相信了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说吧，为什么联系我</t>
-  </si>
-  <si>
-    <t>张博士，你现在身处险境，我是为了帮你，才联系你的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我能有什么危险？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我在这里工作了十多年了，怎么会身处险境？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张博士，你发现了么，今天这里有些奇怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦困，你今天怎么才来？而且哪里奇怪了？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今天这里出现了很多陌生面孔，以前从来没有见到过的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>难道真的有危险？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个人是谁？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是的，你研制出来的药剂，会给你带来杀身之祸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是我的助手，焦困</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟着我快十年了，人很可靠的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张博士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看来真的有危险，我不能自己一个人走</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我要带上我的未婚妻薇薇一起走</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>她也在这个研究所内，我这就去找她</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张博士，带上我吧，遇到困难我也能出一份力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好，那我们先去找薇薇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个药剂是救梦薇的唯一希望</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张博士，十年来我一直甘心作为你的助手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>都是因为对您的崇敬，带上我一起走吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦困</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果遇到什么困难，我也能出一份力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收到未来的消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎么样了？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经和张博士说好了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究所已经不安全了，他们要往哪里走呢？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很好，现在研究所已经不安全了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不能让他们从出口走</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>让他们去研究所的-3楼，在这里可以进入一个秘密基地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>让他们带上水晶头骨，这是进入秘密基地的钥匙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我现在就在秘密基地里面，就是通过水晶头骨进来的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水晶头骨是什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秘密基地是怎么回事？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我也不清楚它究竟是什么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只知道这个东西与这个秘密基地有关，而且通过它才能进入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个基地很特殊，我只能在这里与你取得联系</t>
-  </si>
-  <si>
-    <t>已经没有时间去解释了，快去按着我说的做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系张博士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们刚找到薇薇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>究竟发生什么了？这么急匆匆的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>薇薇，我收到了未来的信息，虽然难以相信，但是我们现在确实有危险，需要快速离开这里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在玩家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你们有水晶头骨么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快去研究所的-3楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究所-3楼？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那里什么都没有，去了只能等死</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从那里能进入秘密基地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那里没有任何出口，怎么进入呢？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>而且这个秘密基地，我从来都没有听说过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是的，我也没有听过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在玩家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水晶头骨？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>难道是你之前给我的那一个？我一直带在身边</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应该是这个了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看来这个东西，除了能抑制你的病情，还有其他作用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病情？什么病情？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水晶头骨从哪里来的？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一种未知的怪病，从心脏处会向上延伸出黑斑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次偶然的机会获得了这个水晶头骨，发现对梦薇的病情有抑制作用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张博士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次偶然的机会获得了这个水晶头骨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦薇得了一种怪病，会从心脏处向上延伸出黑斑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现头骨对梦薇的病情有抑制作用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在玩家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快带着头骨去-3楼，你们可以从那里逃走</t>
-  </si>
-  <si>
-    <t>我们已经到了-3楼，这里只有一条走廊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水晶头骨在淡淡的发光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在玩家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周围有没有什么异常？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往走廊里走走看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>走廊前面有些不对劲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快看，前面产生了空间波动，这是魔法么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>靠近波动后，水晶头骨的光越来越强了</t>
-  </si>
-  <si>
-    <t>空间裂开了，我们是要从这里进入么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一定是这个了，快进去吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张博士下线……</t>
-  </si>
-  <si>
-    <t>撒答复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>250004a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>啊飒飒东风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>250018b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒旦法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿斯顿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>250001a；250002b；250003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你是谁？</t>
+    <t>Preid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -713,7 +1082,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -721,22 +1090,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -760,18 +1154,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I416" totalsRowShown="0">
-  <autoFilter ref="A1:I416"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K416" totalsRowShown="0">
+  <autoFilter ref="A1:K416"/>
+  <tableColumns count="11">
     <tableColumn id="1" name="时间段"/>
     <tableColumn id="8" name="对话人物"/>
     <tableColumn id="2" name="对话编号"/>
-    <tableColumn id="9" name="合成编号" dataDxfId="0"/>
+    <tableColumn id="9" name="合成编号" dataDxfId="1"/>
+    <tableColumn id="13" name="显示时间" dataDxfId="0"/>
     <tableColumn id="3" name="前置编号"/>
     <tableColumn id="4" name="对话内容a"/>
     <tableColumn id="5" name="跳转a"/>
     <tableColumn id="6" name="对话内容b"/>
     <tableColumn id="7" name="跳转b"/>
+    <tableColumn id="12" name="音乐音效"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1064,12 +1460,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q416"/>
+  <dimension ref="A1:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="N3" sqref="N3"/>
+      <selection pane="topRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1078,98 +1474,112 @@
     <col min="2" max="2" width="12.77734375" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="22.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
+        <v>2400001</v>
+      </c>
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
-        <v>2400001</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3">
+      <c r="H3">
         <v>2400002</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1178,19 +1588,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400002</v>
       </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4">
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4">
         <v>2400003</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1199,19 +1609,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400003</v>
       </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5">
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
         <v>2500004</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1220,28 +1630,28 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2500004</v>
       </c>
-      <c r="E6" t="s">
-        <v>170</v>
-      </c>
       <c r="F6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G6">
+        <v>161</v>
+      </c>
+      <c r="G6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6">
         <v>2400005</v>
       </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6">
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6">
         <v>2400006</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -1250,19 +1660,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400005</v>
       </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7">
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7">
         <v>2500008</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -1271,19 +1681,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400006</v>
       </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8">
         <v>2400007</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -1292,19 +1702,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400007</v>
       </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9">
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9">
         <v>2500008</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -1313,40 +1723,25 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2500008</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>43119</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2400009</v>
       </c>
-      <c r="H10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10">
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10">
         <v>2400012</v>
       </c>
-      <c r="M10">
-        <v>2400018</v>
-      </c>
-      <c r="N10" t="s">
-        <v>165</v>
-      </c>
-      <c r="O10" t="s">
-        <v>164</v>
-      </c>
-      <c r="P10" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q10">
-        <v>2400019</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -1355,31 +1750,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400009</v>
       </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11">
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11">
         <v>2400010</v>
       </c>
-      <c r="M11">
-        <v>2400019</v>
-      </c>
-      <c r="N11" t="s">
-        <v>167</v>
-      </c>
-      <c r="O11" t="s">
-        <v>168</v>
-      </c>
-      <c r="P11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1388,19 +1771,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400010</v>
       </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12">
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12">
         <v>2400011</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -1409,19 +1792,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400011</v>
       </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13">
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13">
         <v>2500016</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -1430,19 +1813,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400012</v>
       </c>
-      <c r="F14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14">
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14">
         <v>2400013</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -1451,19 +1834,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400013</v>
       </c>
-      <c r="F15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15">
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15">
         <v>2400014</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -1472,19 +1855,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400014</v>
       </c>
-      <c r="F16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16">
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16">
         <v>2500015</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -1493,22 +1876,22 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2500015</v>
       </c>
-      <c r="F17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17">
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17">
         <v>2400009</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -1517,25 +1900,25 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2500016</v>
       </c>
-      <c r="F18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18">
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18">
         <v>2400017</v>
       </c>
-      <c r="H18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18">
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18">
         <v>2400022</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -1544,19 +1927,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400017</v>
       </c>
-      <c r="F19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19">
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19">
         <v>2400018</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -1565,19 +1948,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400018</v>
       </c>
-      <c r="F20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20">
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20">
         <v>2400019</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -1586,19 +1969,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400019</v>
       </c>
-      <c r="F21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21">
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21">
         <v>2400020</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22">
         <v>20</v>
@@ -1607,19 +1990,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400020</v>
       </c>
-      <c r="F22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22">
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22">
         <v>2400021</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23">
         <v>21</v>
@@ -1628,19 +2011,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400021</v>
       </c>
-      <c r="F23" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23">
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23">
         <v>2500023</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24">
         <v>22</v>
@@ -1649,19 +2032,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400022</v>
       </c>
-      <c r="F24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24">
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24">
         <v>2400017</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C25">
         <v>23</v>
@@ -1670,25 +2053,25 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2500023</v>
       </c>
-      <c r="F25" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25">
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25">
         <v>2400024</v>
       </c>
-      <c r="H25" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25">
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25">
         <v>2400027</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C26">
         <v>24</v>
@@ -1697,19 +2080,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400024</v>
       </c>
-      <c r="F26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26">
+      <c r="G26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26">
         <v>2400025</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C27">
         <v>25</v>
@@ -1718,19 +2101,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400025</v>
       </c>
-      <c r="F27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27">
+      <c r="G27" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27">
         <v>2500026</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C28">
         <v>26</v>
@@ -1739,19 +2122,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2500026</v>
       </c>
-      <c r="F28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28">
+      <c r="G28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28">
         <v>2400027</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C29">
         <v>27</v>
@@ -1760,19 +2143,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400027</v>
       </c>
-      <c r="F29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29">
+      <c r="G29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29">
         <v>2400028</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C30">
         <v>28</v>
@@ -1781,19 +2164,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400028</v>
       </c>
-      <c r="F30" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30">
+      <c r="G30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30">
         <v>2400029</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C31">
         <v>29</v>
@@ -1802,19 +2185,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400029</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31">
+      <c r="G31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31">
         <v>2400030</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C32">
         <v>30</v>
@@ -1823,19 +2206,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400030</v>
       </c>
-      <c r="F32" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32">
+      <c r="G32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32">
         <v>2500031</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C33">
         <v>31</v>
@@ -1844,25 +2227,25 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2500031</v>
       </c>
-      <c r="F33" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33">
+      <c r="G33" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33">
         <v>2400032</v>
       </c>
-      <c r="H33" t="s">
-        <v>58</v>
-      </c>
-      <c r="I33">
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+      <c r="J33">
         <v>2400033</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C34">
         <v>32</v>
@@ -1871,19 +2254,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400032</v>
       </c>
-      <c r="F34" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34">
+      <c r="G34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34">
         <v>2400033</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C35">
         <v>33</v>
@@ -1892,19 +2275,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400033</v>
       </c>
-      <c r="F35" t="s">
-        <v>60</v>
-      </c>
-      <c r="G35">
+      <c r="G35" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35">
         <v>2500034</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C36">
         <v>34</v>
@@ -1913,22 +2296,22 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2500034</v>
       </c>
-      <c r="F36" t="s">
-        <v>61</v>
-      </c>
-      <c r="G36">
+      <c r="G36" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36">
         <v>2400035</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C37">
         <v>35</v>
@@ -1937,19 +2320,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400035</v>
       </c>
-      <c r="F37" t="s">
-        <v>62</v>
-      </c>
-      <c r="G37">
+      <c r="G37" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37">
         <v>2400036</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C38">
         <v>36</v>
@@ -1958,19 +2341,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400036</v>
       </c>
-      <c r="F38" t="s">
-        <v>63</v>
-      </c>
-      <c r="G38">
+      <c r="G38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38">
         <v>2400037</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C39">
         <v>37</v>
@@ -1979,19 +2362,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400037</v>
       </c>
-      <c r="F39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G39">
+      <c r="G39" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39">
         <v>2400038</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C40">
         <v>38</v>
@@ -2000,19 +2383,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400038</v>
       </c>
-      <c r="F40" t="s">
-        <v>65</v>
-      </c>
-      <c r="G40">
+      <c r="G40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40">
         <v>2400039</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C41">
         <v>39</v>
@@ -2021,19 +2404,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400039</v>
       </c>
-      <c r="F41" t="s">
-        <v>66</v>
-      </c>
-      <c r="G41">
+      <c r="G41" t="s">
+        <v>63</v>
+      </c>
+      <c r="H41">
         <v>2500040</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C42">
         <v>40</v>
@@ -2042,22 +2425,22 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2500040</v>
       </c>
-      <c r="F42" t="s">
-        <v>67</v>
-      </c>
-      <c r="G42">
+      <c r="G42" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42">
         <v>1100041</v>
       </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43">
         <v>41</v>
@@ -2066,19 +2449,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100041</v>
       </c>
-      <c r="F43" t="s">
-        <v>68</v>
-      </c>
-      <c r="G43">
+      <c r="G43" t="s">
+        <v>65</v>
+      </c>
+      <c r="H43">
         <v>1100042</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C44">
         <v>42</v>
@@ -2087,16 +2470,16 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100042</v>
       </c>
-      <c r="F44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C45">
         <v>43</v>
@@ -2105,25 +2488,25 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1500043</v>
       </c>
-      <c r="F45" t="s">
-        <v>70</v>
-      </c>
-      <c r="G45">
+      <c r="G45" t="s">
+        <v>67</v>
+      </c>
+      <c r="H45">
         <v>1100044</v>
       </c>
-      <c r="H45" t="s">
-        <v>71</v>
-      </c>
-      <c r="I45">
+      <c r="I45" t="s">
+        <v>68</v>
+      </c>
+      <c r="J45">
         <v>1100044</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C46">
         <v>44</v>
@@ -2132,19 +2515,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100044</v>
       </c>
-      <c r="F46" t="s">
-        <v>27</v>
-      </c>
-      <c r="G46">
+      <c r="G46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46">
         <v>1100045</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47">
         <v>45</v>
@@ -2153,19 +2536,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100045</v>
       </c>
-      <c r="F47" t="s">
-        <v>72</v>
-      </c>
-      <c r="G47">
+      <c r="G47" t="s">
+        <v>69</v>
+      </c>
+      <c r="H47">
         <v>1500046</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C48">
         <v>46</v>
@@ -2174,25 +2557,25 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1500046</v>
       </c>
-      <c r="F48" t="s">
-        <v>73</v>
-      </c>
-      <c r="G48">
+      <c r="G48" t="s">
+        <v>70</v>
+      </c>
+      <c r="H48">
         <v>1100047</v>
       </c>
-      <c r="H48" t="s">
-        <v>74</v>
-      </c>
-      <c r="I48">
+      <c r="I48" t="s">
+        <v>71</v>
+      </c>
+      <c r="J48">
         <v>1100051</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49">
         <v>47</v>
@@ -2201,19 +2584,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100047</v>
       </c>
-      <c r="F49" t="s">
-        <v>75</v>
-      </c>
-      <c r="G49">
+      <c r="G49" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49">
         <v>1100048</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C50">
         <v>48</v>
@@ -2222,19 +2605,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100048</v>
       </c>
-      <c r="F50" t="s">
-        <v>76</v>
-      </c>
-      <c r="G50">
+      <c r="G50" t="s">
+        <v>73</v>
+      </c>
+      <c r="H50">
         <v>1100049</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C51">
         <v>49</v>
@@ -2243,19 +2626,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100049</v>
       </c>
-      <c r="F51" t="s">
-        <v>77</v>
-      </c>
-      <c r="G51">
+      <c r="G51" t="s">
+        <v>74</v>
+      </c>
+      <c r="H51">
         <v>1500050</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C52">
         <v>50</v>
@@ -2264,19 +2647,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1500050</v>
       </c>
-      <c r="F52" t="s">
-        <v>79</v>
-      </c>
-      <c r="G52">
+      <c r="G52" t="s">
+        <v>76</v>
+      </c>
+      <c r="H52">
         <v>1100051</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C53">
         <v>51</v>
@@ -2285,19 +2668,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100051</v>
       </c>
-      <c r="F53" t="s">
-        <v>80</v>
-      </c>
-      <c r="G53">
+      <c r="G53" t="s">
+        <v>77</v>
+      </c>
+      <c r="H53">
         <v>1100052</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C54">
         <v>52</v>
@@ -2306,19 +2689,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100052</v>
       </c>
-      <c r="F54" t="s">
-        <v>81</v>
-      </c>
-      <c r="G54">
+      <c r="G54" t="s">
+        <v>78</v>
+      </c>
+      <c r="H54">
         <v>1100053</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C55">
         <v>53</v>
@@ -2327,19 +2710,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100053</v>
       </c>
-      <c r="F55" t="s">
-        <v>82</v>
-      </c>
-      <c r="G55">
+      <c r="G55" t="s">
+        <v>79</v>
+      </c>
+      <c r="H55">
         <v>1500054</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C56">
         <v>54</v>
@@ -2348,25 +2731,25 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1500054</v>
       </c>
-      <c r="F56" t="s">
-        <v>83</v>
-      </c>
-      <c r="G56">
+      <c r="G56" t="s">
+        <v>80</v>
+      </c>
+      <c r="H56">
         <v>1100055</v>
       </c>
-      <c r="H56" t="s">
-        <v>84</v>
-      </c>
-      <c r="I56">
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+      <c r="J56">
         <v>1100059</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C57">
         <v>55</v>
@@ -2375,19 +2758,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100055</v>
       </c>
-      <c r="F57" t="s">
-        <v>85</v>
-      </c>
-      <c r="G57">
+      <c r="G57" t="s">
+        <v>82</v>
+      </c>
+      <c r="H57">
         <v>1100056</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58">
         <v>56</v>
@@ -2396,19 +2779,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100056</v>
       </c>
-      <c r="F58" t="s">
-        <v>86</v>
-      </c>
-      <c r="G58">
+      <c r="G58" t="s">
+        <v>83</v>
+      </c>
+      <c r="H58">
         <v>1100057</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59">
         <v>57</v>
@@ -2417,19 +2800,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100057</v>
       </c>
-      <c r="F59" t="s">
-        <v>87</v>
-      </c>
-      <c r="G59">
+      <c r="G59" t="s">
+        <v>84</v>
+      </c>
+      <c r="H59">
         <v>1500058</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C60">
         <v>58</v>
@@ -2438,19 +2821,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1500058</v>
       </c>
-      <c r="F60" t="s">
-        <v>88</v>
-      </c>
-      <c r="G60">
+      <c r="G60" t="s">
+        <v>85</v>
+      </c>
+      <c r="H60">
         <v>1100059</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C61">
         <v>59</v>
@@ -2459,19 +2842,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100059</v>
       </c>
-      <c r="F61" t="s">
-        <v>89</v>
-      </c>
-      <c r="G61">
+      <c r="G61" t="s">
+        <v>86</v>
+      </c>
+      <c r="H61">
         <v>1100060</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C62">
         <v>60</v>
@@ -2480,19 +2863,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100060</v>
       </c>
-      <c r="F62" t="s">
-        <v>90</v>
-      </c>
-      <c r="G62">
+      <c r="G62" t="s">
+        <v>87</v>
+      </c>
+      <c r="H62">
         <v>1300061</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C63">
         <v>61</v>
@@ -2501,19 +2884,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1300061</v>
       </c>
-      <c r="F63" t="s">
-        <v>91</v>
-      </c>
-      <c r="G63">
+      <c r="G63" t="s">
+        <v>88</v>
+      </c>
+      <c r="H63">
         <v>1100062</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C64">
         <v>62</v>
@@ -2522,19 +2905,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100062</v>
       </c>
-      <c r="F64" t="s">
-        <v>92</v>
-      </c>
-      <c r="G64">
+      <c r="G64" t="s">
+        <v>89</v>
+      </c>
+      <c r="H64">
         <v>1300063</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C65">
         <v>63</v>
@@ -2543,19 +2926,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1300063</v>
       </c>
-      <c r="F65" t="s">
-        <v>93</v>
-      </c>
-      <c r="G65">
+      <c r="G65" t="s">
+        <v>90</v>
+      </c>
+      <c r="H65">
         <v>1100064</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C66">
         <v>64</v>
@@ -2564,19 +2947,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100064</v>
       </c>
-      <c r="F66" t="s">
-        <v>94</v>
-      </c>
-      <c r="G66">
+      <c r="G66" t="s">
+        <v>91</v>
+      </c>
+      <c r="H66">
         <v>1500065</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C67">
         <v>65</v>
@@ -2585,25 +2968,25 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1500065</v>
       </c>
-      <c r="F67" t="s">
-        <v>95</v>
-      </c>
-      <c r="G67">
+      <c r="G67" t="s">
+        <v>92</v>
+      </c>
+      <c r="H67">
         <v>1100066</v>
       </c>
-      <c r="H67" t="s">
-        <v>96</v>
-      </c>
-      <c r="I67">
+      <c r="I67" t="s">
+        <v>93</v>
+      </c>
+      <c r="J67">
         <v>1100073</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C68">
         <v>66</v>
@@ -2612,19 +2995,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100066</v>
       </c>
-      <c r="F68" t="s">
-        <v>97</v>
-      </c>
-      <c r="G68">
+      <c r="G68" t="s">
+        <v>94</v>
+      </c>
+      <c r="H68">
         <v>1100067</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C69">
         <v>67</v>
@@ -2633,19 +3016,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100067</v>
       </c>
-      <c r="F69" t="s">
-        <v>98</v>
-      </c>
-      <c r="G69">
+      <c r="G69" t="s">
+        <v>95</v>
+      </c>
+      <c r="H69">
         <v>1100068</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C70">
         <v>68</v>
@@ -2654,19 +3037,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100068</v>
       </c>
-      <c r="F70" t="s">
-        <v>100</v>
-      </c>
-      <c r="G70">
+      <c r="G70" t="s">
+        <v>97</v>
+      </c>
+      <c r="H70">
         <v>1100069</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C71">
         <v>69</v>
@@ -2675,19 +3058,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100069</v>
       </c>
-      <c r="F71" t="s">
-        <v>101</v>
-      </c>
-      <c r="G71">
+      <c r="G71" t="s">
+        <v>98</v>
+      </c>
+      <c r="H71">
         <v>1100070</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C72">
         <v>70</v>
@@ -2696,19 +3079,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100070</v>
       </c>
-      <c r="F72" t="s">
-        <v>102</v>
-      </c>
-      <c r="G72">
+      <c r="G72" t="s">
+        <v>99</v>
+      </c>
+      <c r="H72">
         <v>1300071</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C73">
         <v>71</v>
@@ -2717,19 +3100,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1300071</v>
       </c>
-      <c r="F73" t="s">
-        <v>103</v>
-      </c>
-      <c r="G73">
+      <c r="G73" t="s">
+        <v>100</v>
+      </c>
+      <c r="H73">
         <v>1100072</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C74">
         <v>72</v>
@@ -2738,19 +3121,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100072</v>
       </c>
-      <c r="F74" t="s">
-        <v>104</v>
-      </c>
-      <c r="G74">
+      <c r="G74" t="s">
+        <v>101</v>
+      </c>
+      <c r="H74">
         <v>1500078</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C75">
         <v>73</v>
@@ -2759,19 +3142,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100073</v>
       </c>
-      <c r="F75" t="s">
-        <v>105</v>
-      </c>
-      <c r="G75">
+      <c r="G75" t="s">
+        <v>102</v>
+      </c>
+      <c r="H75">
         <v>1100074</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C76">
         <v>74</v>
@@ -2780,19 +3163,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100074</v>
       </c>
-      <c r="F76" t="s">
-        <v>101</v>
-      </c>
-      <c r="G76">
+      <c r="G76" t="s">
+        <v>98</v>
+      </c>
+      <c r="H76">
         <v>1300075</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C77">
         <v>75</v>
@@ -2801,19 +3184,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1300075</v>
       </c>
-      <c r="F77" t="s">
-        <v>106</v>
-      </c>
-      <c r="G77">
+      <c r="G77" t="s">
+        <v>103</v>
+      </c>
+      <c r="H77">
         <v>1300076</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C78">
         <v>76</v>
@@ -2822,19 +3205,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1300076</v>
       </c>
-      <c r="F78" t="s">
-        <v>107</v>
-      </c>
-      <c r="G78">
+      <c r="G78" t="s">
+        <v>104</v>
+      </c>
+      <c r="H78">
         <v>1300077</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C79">
         <v>77</v>
@@ -2843,19 +3226,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1300077</v>
       </c>
-      <c r="F79" t="s">
-        <v>109</v>
-      </c>
-      <c r="G79">
+      <c r="G79" t="s">
+        <v>106</v>
+      </c>
+      <c r="H79">
         <v>1100072</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C80">
         <v>78</v>
@@ -2864,22 +3247,22 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1500078</v>
       </c>
-      <c r="F80" t="s">
-        <v>110</v>
-      </c>
-      <c r="G80">
+      <c r="G80" t="s">
+        <v>107</v>
+      </c>
+      <c r="H80">
         <v>2400079</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C81">
         <v>79</v>
@@ -2888,19 +3271,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400079</v>
       </c>
-      <c r="F81" t="s">
-        <v>111</v>
-      </c>
-      <c r="G81">
+      <c r="G81" t="s">
+        <v>108</v>
+      </c>
+      <c r="H81">
         <v>2500080</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C82">
         <v>80</v>
@@ -2909,25 +3292,25 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2500080</v>
       </c>
-      <c r="F82" t="s">
-        <v>112</v>
-      </c>
-      <c r="G82">
+      <c r="G82" t="s">
+        <v>109</v>
+      </c>
+      <c r="H82">
         <v>2400081</v>
       </c>
-      <c r="H82" t="s">
-        <v>113</v>
-      </c>
-      <c r="I82">
+      <c r="I82" t="s">
+        <v>110</v>
+      </c>
+      <c r="J82">
         <v>2400083</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C83">
         <v>81</v>
@@ -2936,19 +3319,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400081</v>
       </c>
-      <c r="F83" t="s">
-        <v>114</v>
-      </c>
-      <c r="G83">
+      <c r="G83" t="s">
+        <v>111</v>
+      </c>
+      <c r="H83">
         <v>2400082</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C84">
         <v>82</v>
@@ -2957,19 +3340,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400082</v>
       </c>
-      <c r="F84" t="s">
-        <v>115</v>
-      </c>
-      <c r="G84">
+      <c r="G84" t="s">
+        <v>112</v>
+      </c>
+      <c r="H84">
         <v>2400083</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C85">
         <v>83</v>
@@ -2978,19 +3361,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400083</v>
       </c>
-      <c r="F85" t="s">
-        <v>116</v>
-      </c>
-      <c r="G85">
+      <c r="G85" t="s">
+        <v>113</v>
+      </c>
+      <c r="H85">
         <v>2400084</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C86">
         <v>84</v>
@@ -2999,19 +3382,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400084</v>
       </c>
-      <c r="F86" t="s">
-        <v>117</v>
-      </c>
-      <c r="G86">
+      <c r="G86" t="s">
+        <v>114</v>
+      </c>
+      <c r="H86">
         <v>2400085</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C87">
         <v>85</v>
@@ -3020,16 +3403,16 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400085</v>
       </c>
-      <c r="F87" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C88">
         <v>86</v>
@@ -3038,25 +3421,25 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2500086</v>
       </c>
-      <c r="F88" t="s">
-        <v>119</v>
-      </c>
-      <c r="G88">
+      <c r="G88" t="s">
+        <v>116</v>
+      </c>
+      <c r="H88">
         <v>2400087</v>
       </c>
-      <c r="H88" t="s">
-        <v>120</v>
-      </c>
-      <c r="I88">
+      <c r="I88" t="s">
+        <v>117</v>
+      </c>
+      <c r="J88">
         <v>2400089</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C89">
         <v>87</v>
@@ -3065,19 +3448,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400087</v>
       </c>
-      <c r="F89" t="s">
-        <v>121</v>
-      </c>
-      <c r="G89">
+      <c r="G89" t="s">
+        <v>118</v>
+      </c>
+      <c r="H89">
         <v>2500088</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2</v>
       </c>
       <c r="B90" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C90">
         <v>88</v>
@@ -3086,19 +3469,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400088</v>
       </c>
-      <c r="F90" t="s">
-        <v>122</v>
-      </c>
-      <c r="G90">
+      <c r="G90" t="s">
+        <v>119</v>
+      </c>
+      <c r="H90">
         <v>2400089</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C91">
         <v>89</v>
@@ -3107,19 +3490,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400089</v>
       </c>
-      <c r="F91" t="s">
-        <v>123</v>
-      </c>
-      <c r="G91">
+      <c r="G91" t="s">
+        <v>120</v>
+      </c>
+      <c r="H91">
         <v>2400090</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2</v>
       </c>
       <c r="B92" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C92">
         <v>90</v>
@@ -3128,19 +3511,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2400090</v>
       </c>
-      <c r="F92" t="s">
-        <v>124</v>
-      </c>
-      <c r="G92">
+      <c r="G92" t="s">
+        <v>121</v>
+      </c>
+      <c r="H92">
         <v>2500091</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C93">
         <v>91</v>
@@ -3149,22 +3532,22 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>2500091</v>
       </c>
-      <c r="F93" t="s">
-        <v>125</v>
-      </c>
-      <c r="G93">
+      <c r="G93" t="s">
+        <v>122</v>
+      </c>
+      <c r="H93">
         <v>1100092</v>
       </c>
-      <c r="H93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
       <c r="B94" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C94">
         <v>92</v>
@@ -3173,19 +3556,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100092</v>
       </c>
-      <c r="F94" t="s">
-        <v>126</v>
-      </c>
-      <c r="G94">
+      <c r="G94" t="s">
+        <v>123</v>
+      </c>
+      <c r="H94">
         <v>1200093</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C95">
         <v>93</v>
@@ -3194,19 +3577,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1200093</v>
       </c>
-      <c r="F95" t="s">
-        <v>127</v>
-      </c>
-      <c r="G95">
+      <c r="G95" t="s">
+        <v>124</v>
+      </c>
+      <c r="H95">
         <v>1100094</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C96">
         <v>94</v>
@@ -3215,19 +3598,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100094</v>
       </c>
-      <c r="F96" t="s">
-        <v>128</v>
-      </c>
-      <c r="G96">
+      <c r="G96" t="s">
+        <v>125</v>
+      </c>
+      <c r="H96">
         <v>1500095</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
       <c r="B97" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C97">
         <v>95</v>
@@ -3236,25 +3619,25 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1500095</v>
       </c>
-      <c r="F97" t="s">
-        <v>131</v>
-      </c>
-      <c r="G97">
+      <c r="G97" t="s">
+        <v>128</v>
+      </c>
+      <c r="H97">
         <v>1300096</v>
       </c>
-      <c r="H97" t="s">
-        <v>130</v>
-      </c>
-      <c r="I97">
+      <c r="I97" t="s">
+        <v>127</v>
+      </c>
+      <c r="J97">
         <v>1100103</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
       <c r="B98" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C98">
         <v>96</v>
@@ -3263,19 +3646,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1300096</v>
       </c>
-      <c r="F98" t="s">
-        <v>132</v>
-      </c>
-      <c r="G98">
+      <c r="G98" t="s">
+        <v>129</v>
+      </c>
+      <c r="H98">
         <v>1300097</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C99">
         <v>97</v>
@@ -3284,19 +3667,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1300097</v>
       </c>
-      <c r="F99" t="s">
-        <v>133</v>
-      </c>
-      <c r="G99">
+      <c r="G99" t="s">
+        <v>130</v>
+      </c>
+      <c r="H99">
         <v>1500098</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
       <c r="B100" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C100">
         <v>98</v>
@@ -3305,25 +3688,25 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1500098</v>
       </c>
-      <c r="F100" t="s">
-        <v>134</v>
-      </c>
-      <c r="G100">
+      <c r="G100" t="s">
+        <v>131</v>
+      </c>
+      <c r="H100">
         <v>1300099</v>
       </c>
-      <c r="H100" t="s">
-        <v>130</v>
-      </c>
-      <c r="I100">
+      <c r="I100" t="s">
+        <v>127</v>
+      </c>
+      <c r="J100">
         <v>1100103</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
       <c r="B101" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C101">
         <v>99</v>
@@ -3332,19 +3715,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1300099</v>
       </c>
-      <c r="F101" t="s">
-        <v>135</v>
-      </c>
-      <c r="G101">
+      <c r="G101" t="s">
+        <v>132</v>
+      </c>
+      <c r="H101">
         <v>1300100</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
       <c r="B102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C102">
         <v>100</v>
@@ -3353,19 +3736,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1300100</v>
       </c>
-      <c r="F102" t="s">
-        <v>136</v>
-      </c>
-      <c r="G102">
+      <c r="G102" t="s">
+        <v>133</v>
+      </c>
+      <c r="H102">
         <v>1100101</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C103">
         <v>101</v>
@@ -3374,19 +3757,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100101</v>
       </c>
-      <c r="F103" t="s">
-        <v>137</v>
-      </c>
-      <c r="G103">
+      <c r="G103" t="s">
+        <v>134</v>
+      </c>
+      <c r="H103">
         <v>1500102</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
       <c r="B104" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C104">
         <v>102</v>
@@ -3395,22 +3778,22 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1500102</v>
       </c>
-      <c r="F104" t="s">
-        <v>130</v>
-      </c>
-      <c r="G104">
+      <c r="G104" t="s">
+        <v>127</v>
+      </c>
+      <c r="H104">
         <v>1100103</v>
       </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C105">
         <v>103</v>
@@ -3419,19 +3802,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100103</v>
       </c>
-      <c r="F105" t="s">
-        <v>139</v>
-      </c>
-      <c r="G105">
+      <c r="G105" t="s">
+        <v>136</v>
+      </c>
+      <c r="H105">
         <v>1200104</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
       <c r="B106" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C106">
         <v>104</v>
@@ -3440,19 +3823,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1200104</v>
       </c>
-      <c r="F106" t="s">
-        <v>140</v>
-      </c>
-      <c r="G106">
+      <c r="G106" t="s">
+        <v>137</v>
+      </c>
+      <c r="H106">
         <v>1100105</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C107">
         <v>105</v>
@@ -3461,19 +3844,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100105</v>
       </c>
-      <c r="F107" t="s">
-        <v>141</v>
-      </c>
-      <c r="G107">
+      <c r="G107" t="s">
+        <v>138</v>
+      </c>
+      <c r="H107">
         <v>1100106</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C108">
         <v>106</v>
@@ -3482,19 +3865,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100106</v>
       </c>
-      <c r="F108" t="s">
-        <v>142</v>
-      </c>
-      <c r="G108">
+      <c r="G108" t="s">
+        <v>139</v>
+      </c>
+      <c r="H108">
         <v>1500107</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
       <c r="B109" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C109">
         <v>107</v>
@@ -3503,25 +3886,25 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1500107</v>
       </c>
-      <c r="F109" t="s">
-        <v>143</v>
-      </c>
-      <c r="G109">
+      <c r="G109" t="s">
+        <v>140</v>
+      </c>
+      <c r="H109">
         <v>1100108</v>
       </c>
-      <c r="H109" t="s">
-        <v>144</v>
-      </c>
-      <c r="I109">
+      <c r="I109" t="s">
+        <v>141</v>
+      </c>
+      <c r="J109">
         <v>1100110</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C110">
         <v>108</v>
@@ -3530,19 +3913,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100108</v>
       </c>
-      <c r="F110" t="s">
-        <v>145</v>
-      </c>
-      <c r="G110">
+      <c r="G110" t="s">
+        <v>142</v>
+      </c>
+      <c r="H110">
         <v>1100109</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C111">
         <v>109</v>
@@ -3551,19 +3934,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100109</v>
       </c>
-      <c r="F111" t="s">
-        <v>146</v>
-      </c>
-      <c r="G111">
+      <c r="G111" t="s">
+        <v>143</v>
+      </c>
+      <c r="H111">
         <v>1500113</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C112">
         <v>110</v>
@@ -3572,19 +3955,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100110</v>
       </c>
-      <c r="F112" t="s">
-        <v>148</v>
-      </c>
-      <c r="G112">
+      <c r="G112" t="s">
+        <v>145</v>
+      </c>
+      <c r="H112">
         <v>1100111</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1</v>
       </c>
       <c r="B113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C113">
         <v>111</v>
@@ -3593,19 +3976,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100111</v>
       </c>
-      <c r="F113" t="s">
-        <v>149</v>
-      </c>
-      <c r="G113">
+      <c r="G113" t="s">
+        <v>146</v>
+      </c>
+      <c r="H113">
         <v>1100112</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
       <c r="B114" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C114">
         <v>112</v>
@@ -3614,19 +3997,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100112</v>
       </c>
-      <c r="F114" t="s">
-        <v>150</v>
-      </c>
-      <c r="G114">
+      <c r="G114" t="s">
+        <v>147</v>
+      </c>
+      <c r="H114">
         <v>1500113</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
       <c r="B115" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C115">
         <v>113</v>
@@ -3635,22 +4018,22 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1500113</v>
       </c>
-      <c r="F115" t="s">
-        <v>152</v>
-      </c>
-      <c r="G115">
+      <c r="G115" t="s">
+        <v>149</v>
+      </c>
+      <c r="H115">
         <v>1100114</v>
       </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1</v>
       </c>
       <c r="B116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C116">
         <v>114</v>
@@ -3659,19 +4042,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100114</v>
       </c>
-      <c r="F116" t="s">
-        <v>153</v>
-      </c>
-      <c r="G116">
+      <c r="G116" t="s">
+        <v>150</v>
+      </c>
+      <c r="H116">
         <v>1200115</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
       <c r="B117" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C117">
         <v>115</v>
@@ -3680,19 +4063,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1200115</v>
       </c>
-      <c r="F117" t="s">
-        <v>154</v>
-      </c>
-      <c r="G117">
+      <c r="G117" t="s">
+        <v>151</v>
+      </c>
+      <c r="H117">
         <v>1500116</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C118">
         <v>116</v>
@@ -3701,25 +4084,25 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1500116</v>
       </c>
-      <c r="F118" t="s">
-        <v>156</v>
-      </c>
-      <c r="G118">
+      <c r="G118" t="s">
+        <v>153</v>
+      </c>
+      <c r="H118">
         <v>1100117</v>
       </c>
-      <c r="H118" t="s">
-        <v>157</v>
-      </c>
-      <c r="I118">
+      <c r="I118" t="s">
+        <v>154</v>
+      </c>
+      <c r="J118">
         <v>1100117</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C119">
         <v>117</v>
@@ -3728,19 +4111,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100117</v>
       </c>
-      <c r="F119" t="s">
-        <v>158</v>
-      </c>
-      <c r="G119">
+      <c r="G119" t="s">
+        <v>155</v>
+      </c>
+      <c r="H119">
         <v>1300118</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
       <c r="B120" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C120">
         <v>118</v>
@@ -3749,19 +4132,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1300118</v>
       </c>
-      <c r="F120" t="s">
-        <v>159</v>
-      </c>
-      <c r="G120">
+      <c r="G120" t="s">
+        <v>156</v>
+      </c>
+      <c r="H120">
         <v>1200119</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
       <c r="B121" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C121">
         <v>119</v>
@@ -3770,19 +4153,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1200119</v>
       </c>
-      <c r="F121" t="s">
-        <v>160</v>
-      </c>
-      <c r="G121">
+      <c r="G121" t="s">
+        <v>157</v>
+      </c>
+      <c r="H121">
         <v>1100120</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
       <c r="B122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C122">
         <v>120</v>
@@ -3791,19 +4174,19 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1100120</v>
       </c>
-      <c r="F122" t="s">
-        <v>161</v>
-      </c>
-      <c r="G122">
+      <c r="G122" t="s">
+        <v>158</v>
+      </c>
+      <c r="H122">
         <v>1500121</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
       <c r="B123" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C123">
         <v>121</v>
@@ -3812,22 +4195,22 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1500121</v>
       </c>
-      <c r="F123" t="s">
-        <v>162</v>
-      </c>
-      <c r="G123">
+      <c r="G123" t="s">
+        <v>159</v>
+      </c>
+      <c r="H123">
         <v>1500122</v>
       </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
       <c r="B124" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C124">
         <v>122</v>
@@ -3836,11 +4219,11 @@
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*1000000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*100000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>1500122</v>
       </c>
-      <c r="F124" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G124" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1</v>
       </c>
@@ -3852,7 +4235,7 @@
         <v>1500123</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -3864,7 +4247,7 @@
         <v>1500124</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
@@ -3876,7 +4259,7 @@
         <v>1500125</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -6538,7 +6921,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B449">
       <formula1>"张博士,白梦薇,焦困,未来玩家,现在玩家"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="选择某处对话时显示后对话内容，否则不显示_x000a_250002a：在250002处选择a对话，显示此行文字" sqref="E1:E1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="选择某处对话时显示后对话内容，否则不显示_x000a_250002a：在250002处选择a对话，显示此行文字" sqref="F1:F1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6550,67 +6933,2801 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:M372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="4" customWidth="1"/>
+    <col min="6" max="7" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2400001</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2400002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2400002</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2400003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2400003</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2500004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>2500004</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2400005</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2400006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2400005</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2500008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>2400006</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2400007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2400007</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2500008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>2500008</v>
+      </c>
+      <c r="D10" s="4">
+        <v>43119</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2400009</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2400012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>2400009</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2400010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>2400010</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2400011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>2400011</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2500016</v>
+      </c>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>2400012</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2400013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>2400013</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2400014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>2400014</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2500015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>2500015</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2400009</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>2500016</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2400017</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2400022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>2400017</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2400018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>2400018</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2400019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>2400019</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2400020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>2400020</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2400021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>2400021</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2500023</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>2400022</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2400017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>2500023</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2400024</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="4">
+        <v>2400027</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>2400024</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2400025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>2400025</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2500026</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>2500026</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2400027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>2400027</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2400028</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>2400028</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E30" s="4">
+        <v>2400029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>2400029</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2400030</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>2400030</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2500031</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>2500031</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" s="4">
+        <v>2400032</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G33" s="4">
+        <v>2400033</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>2400032</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E34" s="4">
+        <v>2400033</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>2400033</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E35" s="4">
+        <v>2500034</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>2500034</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E36" s="4">
+        <v>2400035</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>2400035</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E37" s="4">
+        <v>2400036</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>2400036</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E38" s="4">
+        <v>2400037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>2400037</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2400038</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>2400038</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E40" s="4">
+        <v>2400039</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>2400039</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E41" s="4">
+        <v>2500040</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>2500040</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1100041</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>1100041</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1100042</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>1100042</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>1500043</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1100044</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1100044</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>1100044</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1100045</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>1100045</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1500046</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>1500046</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1100047</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1100051</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>1100047</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1100048</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>1100048</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1100049</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>1100049</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1500050</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>1500050</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E52" s="4">
+        <v>1100051</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>1100051</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1100052</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>1100052</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1100053</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>1100053</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1500054</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>1500054</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1100055</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G56" s="4">
+        <v>1100059</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>1100055</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1100056</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>1100056</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1100057</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>1100057</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1500058</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>1500058</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E60" s="4">
+        <v>1100059</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>1100059</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1100060</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>1100060</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E62" s="4">
+        <v>1300061</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>1300061</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E63" s="4">
+        <v>1100062</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>1100062</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E64" s="4">
+        <v>1300063</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>1300063</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E65" s="4">
+        <v>1100064</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>1100064</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E66" s="4">
+        <v>1500065</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>1500065</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1100066</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G67" s="4">
+        <v>1100073</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>1100066</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E68" s="4">
+        <v>1100067</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>1100067</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E69" s="4">
+        <v>1100068</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>1100068</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E70" s="4">
+        <v>1100069</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>1100069</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E71" s="4">
+        <v>1100070</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>1100070</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E72" s="4">
+        <v>1300071</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>1300071</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E73" s="4">
+        <v>1100072</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>1100072</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1500078</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>1100073</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E75" s="4">
+        <v>1100074</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>1100074</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E76" s="4">
+        <v>1300075</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>1300075</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E77" s="4">
+        <v>1300076</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>1300076</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E78" s="4">
+        <v>1300077</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>1300077</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E79" s="4">
+        <v>1100072</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>1500078</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E80" s="4">
+        <v>2400079</v>
+      </c>
+      <c r="F80" s="4">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>23</v>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>2400079</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E81" s="4">
+        <v>2500080</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>2500080</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E82" s="4">
+        <v>2400081</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G82" s="4">
+        <v>2400083</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>2400081</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E83" s="4">
+        <v>2400082</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>2400082</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E84" s="4">
+        <v>2400083</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>2400083</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E85" s="4">
+        <v>2400084</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>2400084</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E86" s="4">
+        <v>2400085</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>2400085</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>2500086</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E88" s="4">
+        <v>2400087</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G88" s="4">
+        <v>2400089</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>2400087</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E89" s="4">
+        <v>2500088</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>2400088</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E90" s="4">
+        <v>2400089</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>2400089</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E91" s="4">
+        <v>2400090</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>2400090</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E92" s="4">
+        <v>2500091</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>2500091</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E93" s="4">
+        <v>1100092</v>
+      </c>
+      <c r="F93" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>1100092</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E94" s="4">
+        <v>1200093</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>1200093</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E95" s="4">
+        <v>1100094</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>1100094</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E96" s="4">
+        <v>1500095</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>1500095</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E97" s="4">
+        <v>1300096</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G97" s="4">
+        <v>1100103</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>1300096</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E98" s="4">
+        <v>1300097</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>1300097</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E99" s="4">
+        <v>1500098</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>1500098</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E100" s="4">
+        <v>1300099</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G100" s="4">
+        <v>1100103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>1300099</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E101" s="4">
+        <v>1300100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>1300100</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E102" s="4">
+        <v>1100101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>1100101</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E103" s="4">
+        <v>1500102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>1500102</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E104" s="4">
+        <v>1100103</v>
+      </c>
+      <c r="F104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>1100103</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E105" s="4">
+        <v>1200104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>1200104</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E106" s="4">
+        <v>1100105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>1100105</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E107" s="4">
+        <v>1100106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>1100106</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E108" s="4">
+        <v>1500107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>1500107</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E109" s="4">
+        <v>1100108</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G109" s="4">
+        <v>1100110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>1100108</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E110" s="4">
+        <v>1100109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>1100109</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E111" s="4">
+        <v>1500113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>1100110</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E112" s="4">
+        <v>1100111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>1100111</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E113" s="4">
+        <v>1100112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>1100112</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E114" s="4">
+        <v>1500113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>1500113</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E115" s="4">
+        <v>1100114</v>
+      </c>
+      <c r="F115" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>1100114</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E116" s="4">
+        <v>1200115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>1200115</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E117" s="4">
+        <v>1500116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>1500116</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E118" s="4">
+        <v>1100117</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G118" s="4">
+        <v>1100117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>1100117</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E119" s="4">
+        <v>1300118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>1300118</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E120" s="4">
+        <v>1200119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>1200119</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E121" s="4">
+        <v>1100120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>1100120</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E122" s="4">
+        <v>1500121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>1500121</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E123" s="4">
+        <v>1500122</v>
+      </c>
+      <c r="F123" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>1500122</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>1500123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>1500124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>1500125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>1500126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>1500127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>1500128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>1500129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>1500130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>1500131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>1500132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>1500133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>1500134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>1500135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>1500136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>1500137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>1500138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>1500139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>1500140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>1500141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>1500142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>1500143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>1500144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>1500145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>1500146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>1500147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>1500148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>1500149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <v>1500150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
+        <v>1500151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <v>1500152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
+        <v>1500153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
+        <v>1500154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
+        <v>1500155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
+        <v>1500156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
+        <v>1500157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
+        <v>1500158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
+        <v>1500159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
+        <v>1500160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
+        <v>1500161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
+        <v>1500162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
+        <v>1500163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
+        <v>1500164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
+        <v>1500165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
+        <v>1500166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
+        <v>1500167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
+        <v>1500168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
+        <v>1500169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
+        <v>1500170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
+        <v>1500171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
+        <v>1500172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
+        <v>1500173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
+        <v>1500174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="4">
+        <v>1500175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="4">
+        <v>1500176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="4">
+        <v>1500177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="4">
+        <v>2500178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="4">
+        <v>2500179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="4">
+        <v>2500180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="4">
+        <v>2500181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="4">
+        <v>2500182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="4">
+        <v>2500183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="4">
+        <v>2500184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="4">
+        <v>2500185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="4">
+        <v>2500186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="4">
+        <v>2500187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="4">
+        <v>2500188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="4">
+        <v>2500189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="4">
+        <v>2500190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="4">
+        <v>2500191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="4">
+        <v>2500192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="4">
+        <v>2500193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="4">
+        <v>2500194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="4">
+        <v>2500195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="4">
+        <v>2500196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="4">
+        <v>2500197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="4">
+        <v>2500198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:H1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9D327510-1FDE-4616-A569-64207EAE4099}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9D327510-1FDE-4616-A569-64207EAE4099}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A1:H1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>